--- a/Data_preparation/datasets/final_data/INFINEON_TECHNOLOGIES_AG.xlsx
+++ b/Data_preparation/datasets/final_data/INFINEON_TECHNOLOGIES_AG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,67 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
     <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
   <si>
     <t>EUR</t>
@@ -718,19 +658,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>13.19506057834629</v>
+        <v>11.41231320823865</v>
       </c>
       <c r="E2">
-        <v>13.02006114768982</v>
+        <v>10.95168045806885</v>
       </c>
       <c r="F2">
-        <v>13.47506251467241</v>
+        <v>12.40086274295785</v>
       </c>
       <c r="G2">
-        <v>12.49505783111611</v>
+        <v>10.76535665477439</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>1299391231</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -820,7 +760,7 @@
         <v>1157000</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM2">
         <v>-1.011837822798243</v>
@@ -846,22 +786,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>22799.20300311841</v>
+        <v>11.62969021187249</v>
       </c>
       <c r="E3">
-        <v>21306.82615039063</v>
+        <v>10.56350612831116</v>
       </c>
       <c r="F3">
-        <v>23572.36209549545</v>
+        <v>11.96093262605668</v>
       </c>
       <c r="G3">
-        <v>21127.02171030295</v>
+        <v>10.18671831406672</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>1299391231</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>14036417000.25474</v>
@@ -948,7 +888,7 @@
         <v>2314000</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM3">
         <v>-1.205749425519193</v>
@@ -974,22 +914,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>872.6184122529871</v>
+        <v>10.56350560646126</v>
       </c>
       <c r="E4">
-        <v>873.1955408325196</v>
+        <v>11.58828446102142</v>
       </c>
       <c r="F4">
-        <v>888.7780124798943</v>
+        <v>12.38015956891461</v>
       </c>
       <c r="G4">
-        <v>841.8343935468035</v>
+        <v>10.06353783079802</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>1299391231</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>12982609068</v>
@@ -1076,7 +1016,7 @@
         <v>1157000</v>
       </c>
       <c r="AL4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM4">
         <v>0.1062336</v>
@@ -1102,22 +1042,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>31.383625</v>
+        <v>13.97943758394593</v>
       </c>
       <c r="E5">
-        <v>29.32416420555115</v>
+        <v>12.71140232086181</v>
       </c>
       <c r="F5">
-        <v>31.383625</v>
+        <v>13.97943758394593</v>
       </c>
       <c r="G5">
-        <v>25.72010947036743</v>
+        <v>11.69179912915183</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>1299391231</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>17082526486.60194</v>
@@ -1204,7 +1144,7 @@
         <v>2314000</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM5">
         <v>1.447471049443717</v>
@@ -1245,7 +1185,7 @@
         <v>1299391231</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>16283363241.70881</v>
@@ -1332,7 +1272,7 @@
         <v>2314000</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM6">
         <v>11.72812638652223</v>
@@ -1358,22 +1298,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>20.23592973518372</v>
+        <v>13.7956901867409</v>
       </c>
       <c r="E7">
-        <v>21.67060947036743</v>
+        <v>15.59192159080505</v>
       </c>
       <c r="F7">
-        <v>21.83259097099304</v>
+        <v>15.91850857079651</v>
       </c>
       <c r="G7">
-        <v>19.43759911727905</v>
+        <v>12.25756817160668</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>1299391231</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>16910110360</v>
@@ -1460,7 +1400,7 @@
         <v>2314000</v>
       </c>
       <c r="AL7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM7">
         <v>0.32740770609319</v>
@@ -1486,22 +1426,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.05616809421494</v>
+        <v>16.72971009620683</v>
       </c>
       <c r="E8">
-        <v>10.42982245445251</v>
+        <v>17.23012588119507</v>
       </c>
       <c r="F8">
-        <v>10.91719712313344</v>
+        <v>17.35127908132555</v>
       </c>
       <c r="G8">
-        <v>9.639191564158663</v>
+        <v>16.32937686539401</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>1299391231</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>20684503528</v>
@@ -1588,7 +1528,7 @@
         <v>3471000</v>
       </c>
       <c r="AL8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM8">
         <v>-0.6400759024152723</v>
@@ -1614,22 +1554,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>618.9570490869983</v>
+        <v>17.33021137288823</v>
       </c>
       <c r="E9">
-        <v>521.1219026184082</v>
+        <v>17.8991047782898</v>
       </c>
       <c r="F9">
-        <v>660.8863975735369</v>
+        <v>18.16775050508547</v>
       </c>
       <c r="G9">
-        <v>515.1319956917598</v>
+        <v>16.9246104588649</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>1299391231</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>21528032890</v>
@@ -1713,7 +1653,7 @@
         <v>3471000</v>
       </c>
       <c r="AL9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO9">
         <v>0.121580547112462</v>
@@ -1733,22 +1673,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>11.30339678918528</v>
+        <v>20.52060018753459</v>
       </c>
       <c r="E10">
-        <v>11.18565336894989</v>
+        <v>20.2751644744873</v>
       </c>
       <c r="F10">
-        <v>11.53888437825048</v>
+        <v>20.55261433785486</v>
       </c>
       <c r="G10">
-        <v>10.8716704159259</v>
+        <v>19.37878861910236</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>1299391231</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>24495362227.4881</v>
@@ -1835,7 +1775,7 @@
         <v>3471000</v>
       </c>
       <c r="AL10" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM10">
         <v>2.127783448572864</v>
@@ -1861,22 +1801,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>930.7952226609096</v>
+        <v>19.78962598112524</v>
       </c>
       <c r="E11">
-        <v>917.9634751586914</v>
+        <v>19.61888793182373</v>
       </c>
       <c r="F11">
-        <v>1012.720995175073</v>
+        <v>21.00613509123801</v>
       </c>
       <c r="G11">
-        <v>866.6364851498182</v>
+        <v>19.02663943283996</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>1299391231</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>24152617970</v>
@@ -1963,7 +1903,7 @@
         <v>3471000</v>
       </c>
       <c r="AL11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM11">
         <v>0.5500714097496707</v>
@@ -1989,22 +1929,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>18.86818684636498</v>
+        <v>22.87892256675036</v>
       </c>
       <c r="E12">
-        <v>19.2411628112793</v>
+        <v>25.082511302948</v>
       </c>
       <c r="F12">
-        <v>20.72575325261764</v>
+        <v>25.19989448316438</v>
       </c>
       <c r="G12">
-        <v>18.86818684636498</v>
+        <v>22.86291447422016</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>1299391231</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>27377946375</v>
@@ -2091,7 +2031,7 @@
         <v>5785000</v>
       </c>
       <c r="AL12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM12">
         <v>-1.671106991525424</v>
@@ -2132,7 +2072,7 @@
         <v>1299391231</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>30188096900</v>
@@ -2219,7 +2159,7 @@
         <v>5785000</v>
       </c>
       <c r="AL13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM13">
         <v>1.113686827253628</v>
@@ -2245,22 +2185,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>18.45757314406327</v>
+        <v>23.46208176838126</v>
       </c>
       <c r="E14">
-        <v>17.1458679599762</v>
+        <v>22.9656449584961</v>
       </c>
       <c r="F14">
-        <v>18.83234656884871</v>
+        <v>24.05564993575423</v>
       </c>
       <c r="G14">
-        <v>15.55308270730004</v>
+        <v>21.86484760818376</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>1299391231</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>28523706120</v>
@@ -2347,7 +2287,7 @@
         <v>2314000</v>
       </c>
       <c r="AL14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM14">
         <v>11.03435664492137</v>
@@ -2373,19 +2313,19 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>37.44873108618253</v>
+        <v>22.98722863627405</v>
       </c>
       <c r="E15">
-        <v>36.58783875274658</v>
+        <v>24.45495849990845</v>
       </c>
       <c r="F15">
-        <v>38.56788810488639</v>
+        <v>25.1564463111685</v>
       </c>
       <c r="G15">
-        <v>34.73692509297725</v>
+        <v>22.39366250176973</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>1299391231</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -2475,7 +2415,7 @@
         <v>3471000</v>
       </c>
       <c r="AL15" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM15">
         <v>2.505390352000539</v>
@@ -2501,22 +2441,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>137.5325650948199</v>
+        <v>21.14717098583352</v>
       </c>
       <c r="E16">
-        <v>152.3011590118408</v>
+        <v>19.1128549079895</v>
       </c>
       <c r="F16">
-        <v>159.2239383115644</v>
+        <v>22.4368318225283</v>
       </c>
       <c r="G16">
-        <v>113.9951140339675</v>
+        <v>17.00299530374785</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>1299391231</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>26158254330</v>
@@ -2603,7 +2543,7 @@
         <v>3471000</v>
       </c>
       <c r="AL16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM16">
         <v>-2.122881690140845</v>
@@ -2629,22 +2569,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>206.7603717690826</v>
+        <v>18.74052815651449</v>
       </c>
       <c r="E17">
-        <v>165.2236817016602</v>
+        <v>20.95291541099548</v>
       </c>
       <c r="F17">
-        <v>209.9909953690139</v>
+        <v>21.56266910012841</v>
       </c>
       <c r="G17">
-        <v>165.2236817016602</v>
+        <v>17.64512793242761</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>1299391231</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>22755980130</v>
@@ -2731,7 +2671,7 @@
         <v>2314000</v>
       </c>
       <c r="AL17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM17">
         <v>0.871134744812015</v>
@@ -2757,22 +2697,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1268.310006023214</v>
+        <v>19.69639573316351</v>
       </c>
       <c r="E18">
-        <v>1394.216919189453</v>
+        <v>23.00648404312133</v>
       </c>
       <c r="F18">
-        <v>1498.176755748733</v>
+        <v>23.65208829245456</v>
       </c>
       <c r="G18">
-        <v>1197.848339021925</v>
+        <v>19.69201907357391</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>1299391231</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>24242991240</v>
@@ -2859,7 +2799,7 @@
         <v>3471000</v>
       </c>
       <c r="AL18" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM18">
         <v>-0.453535064935065</v>
@@ -2885,22 +2825,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>46909.52164104707</v>
+        <v>18.16445449294981</v>
       </c>
       <c r="E19">
-        <v>44928.1268515625</v>
+        <v>18.62403714942932</v>
       </c>
       <c r="F19">
-        <v>47107.66111999553</v>
+        <v>19.95026102890931</v>
       </c>
       <c r="G19">
-        <v>43937.42945682022</v>
+        <v>17.10741396562588</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>1299391231</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>23354276400</v>
@@ -2987,7 +2927,7 @@
         <v>3471000</v>
       </c>
       <c r="AL19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM19">
         <v>-1.351660466790664</v>
@@ -3013,22 +2953,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>70.30402277742479</v>
+        <v>18.23886101922508</v>
       </c>
       <c r="E20">
-        <v>68.96688168334961</v>
+        <v>19.0157754650116</v>
       </c>
       <c r="F20">
-        <v>70.74276808941683</v>
+        <v>20.11877295359612</v>
       </c>
       <c r="G20">
-        <v>64.95548231095034</v>
+        <v>16.71786229120623</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>1299391231</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>21890972220</v>
@@ -3115,7 +3055,7 @@
         <v>3471000</v>
       </c>
       <c r="AL20" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM20">
         <v>3.819500295539772</v>
@@ -3141,22 +3081,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>257.8329964679378</v>
+        <v>22.22409967481839</v>
       </c>
       <c r="E21">
-        <v>253.4349922637939</v>
+        <v>21.42092523002625</v>
       </c>
       <c r="F21">
-        <v>292.4672795755714</v>
+        <v>24.18279784373782</v>
       </c>
       <c r="G21">
-        <v>235.2932249217003</v>
+        <v>21.25459963994453</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>1299391231</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>29255844150</v>
@@ -3243,7 +3183,7 @@
         <v>3471000</v>
       </c>
       <c r="AL21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM21">
         <v>-1.103740748306803</v>
@@ -3284,7 +3224,7 @@
         <v>1299391231</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>19376521970</v>
@@ -3371,7 +3311,7 @@
         <v>3471000</v>
       </c>
       <c r="AL22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM22">
         <v>-0.6720389245585875</v>
@@ -3397,22 +3337,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>1122.682585120727</v>
+        <v>22.85280379887807</v>
       </c>
       <c r="E23">
-        <v>1259.542938354492</v>
+        <v>23.4123503074646</v>
       </c>
       <c r="F23">
-        <v>1293.758026662933</v>
+        <v>26.1491480422388</v>
       </c>
       <c r="G23">
-        <v>1099.159711908674</v>
+        <v>22.52040022533345</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>1299391231</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>30307509805.00464</v>
@@ -3493,7 +3433,7 @@
         <v>4628000</v>
       </c>
       <c r="AL23" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO23">
         <v>0.1476540938362466</v>
@@ -3513,22 +3453,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>14.77880914739032</v>
+        <v>27.47876628737924</v>
       </c>
       <c r="E24">
-        <v>17.95704768466949</v>
+        <v>26.48155338668823</v>
       </c>
       <c r="F24">
-        <v>20.02290166378595</v>
+        <v>31.39005930539134</v>
       </c>
       <c r="G24">
-        <v>14.67286878005579</v>
+        <v>25.89984603739936</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>1299391231</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>35330059440</v>
@@ -3615,7 +3555,7 @@
         <v>4628000</v>
       </c>
       <c r="AL24" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM24">
         <v>-1.819130227570595</v>
@@ -3641,22 +3581,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>37.61124380306016</v>
+        <v>34.78058337482976</v>
       </c>
       <c r="E25">
-        <v>36.16380609130859</v>
+        <v>36.70298970031738</v>
       </c>
       <c r="F25">
-        <v>38.1747476424971</v>
+        <v>39.79988899110095</v>
       </c>
       <c r="G25">
-        <v>35.61134952856651</v>
+        <v>34.38169948989559</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>1299391231</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>47250017230</v>
@@ -3743,7 +3683,7 @@
         <v>3471000</v>
       </c>
       <c r="AL25" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM25">
         <v>2.126999479166666</v>
@@ -3769,22 +3709,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2911.416905565497</v>
+        <v>40.79614969212006</v>
       </c>
       <c r="E26">
-        <v>3228.227164550781</v>
+        <v>37.42341357421875</v>
       </c>
       <c r="F26">
-        <v>3247.883275509722</v>
+        <v>41.5933416334489</v>
       </c>
       <c r="G26">
-        <v>2896.940735382299</v>
+        <v>36.69312037561483</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>1299391231</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>54428193179.7552</v>
@@ -3871,7 +3811,7 @@
         <v>3471000</v>
       </c>
       <c r="AL26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM26">
         <v>3.765624654684125</v>
@@ -3897,22 +3837,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.35473723828192</v>
+        <v>38.01991829505475</v>
       </c>
       <c r="E27">
-        <v>46.33250424194337</v>
+        <v>35.82903417205811</v>
       </c>
       <c r="F27">
-        <v>46.89943080679002</v>
+        <v>38.16486346247938</v>
       </c>
       <c r="G27">
-        <v>41.95270573549815</v>
+        <v>33.68832517568221</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>1299391231</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>50907791740</v>
@@ -3993,7 +3933,7 @@
         <v>12727000</v>
       </c>
       <c r="AL27" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO27">
         <v>0.1381337252020573</v>
@@ -4013,22 +3953,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>59.84004141235351</v>
+        <v>39.00665525031088</v>
       </c>
       <c r="E28">
-        <v>52.33110947036743</v>
+        <v>45.03855450057983</v>
       </c>
       <c r="F28">
-        <v>61.59868194198609</v>
+        <v>45.08315366863616</v>
       </c>
       <c r="G28">
-        <v>50.37578105926514</v>
+        <v>37.86382602482929</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>1299391231</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>53481781210</v>
@@ -4115,7 +4055,7 @@
         <v>11570000</v>
       </c>
       <c r="AL28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM28">
         <v>7.828999922713563</v>
@@ -4141,22 +4081,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>113.4567031103399</v>
+        <v>45.54585767104963</v>
       </c>
       <c r="E29">
-        <v>97.69401095581055</v>
+        <v>40.51184231567383</v>
       </c>
       <c r="F29">
-        <v>113.4567031103399</v>
+        <v>46.17580924366443</v>
       </c>
       <c r="G29">
-        <v>93.21203893338271</v>
+        <v>37.93630194959927</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>1299391231</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>61354275320</v>
@@ -4243,7 +4183,7 @@
         <v>11570000</v>
       </c>
       <c r="AL29" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM29">
         <v>0.344481938109667</v>
@@ -4269,22 +4209,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>653.5223021794563</v>
+        <v>34.871513162342</v>
       </c>
       <c r="E30">
-        <v>656.6947405395508</v>
+        <v>30.86323010635376</v>
       </c>
       <c r="F30">
-        <v>657.7522199929157</v>
+        <v>35.13011379862758</v>
       </c>
       <c r="G30">
-        <v>563.636548643447</v>
+        <v>29.36223041026563</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>1299391231</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>46679994713.48616</v>
@@ -4371,7 +4311,7 @@
         <v>11570000</v>
       </c>
       <c r="AL30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM30">
         <v>15.3616041444106</v>
@@ -4397,22 +4337,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>1146.533268821023</v>
+        <v>25.12907906347629</v>
       </c>
       <c r="E31">
-        <v>1079.284682861328</v>
+        <v>29.85132074165345</v>
       </c>
       <c r="F31">
-        <v>1232.523263982599</v>
+        <v>30.37414067004134</v>
       </c>
       <c r="G31">
-        <v>1079.284682861328</v>
+        <v>23.24580230862804</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>1299391231</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>34783099260</v>
@@ -4499,7 +4439,7 @@
         <v>25454000</v>
       </c>
       <c r="AL31" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM31">
         <v>11.89419342112889</v>
@@ -4525,22 +4465,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>4431.253348723354</v>
+        <v>25.11221179238521</v>
       </c>
       <c r="E32">
-        <v>4301.953671386719</v>
+        <v>27.70382398033142</v>
       </c>
       <c r="F32">
-        <v>4659.171424028611</v>
+        <v>29.70515624206894</v>
       </c>
       <c r="G32">
-        <v>4131.015114907777</v>
+        <v>24.8255051349176</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>1299391231</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>34189641564</v>
@@ -4627,7 +4567,7 @@
         <v>71734000</v>
       </c>
       <c r="AL32" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM32">
         <v>0.1809184628563788</v>
@@ -4653,22 +4593,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>20.44997411727906</v>
+        <v>32.19557972357918</v>
       </c>
       <c r="E33">
-        <v>22.12184097099304</v>
+        <v>37.00777117538452</v>
       </c>
       <c r="F33">
-        <v>22.86232026481629</v>
+        <v>38.34573853529102</v>
       </c>
       <c r="G33">
-        <v>19.76734394073486</v>
+        <v>32.16184864305057</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>1299391231</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>42827350020</v>
@@ -4755,7 +4695,7 @@
         <v>21983000</v>
       </c>
       <c r="AL33" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM33">
         <v>0.2224505256044553</v>
@@ -4781,22 +4721,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>5375.61069363049</v>
+        <v>42.42663731619185</v>
       </c>
       <c r="E34">
-        <v>5087.3741953125</v>
+        <v>37.32749711608887</v>
       </c>
       <c r="F34">
-        <v>5376.719295547097</v>
+        <v>42.70456459966367</v>
       </c>
       <c r="G34">
-        <v>4887.825850323124</v>
+        <v>35.74500794121225</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>1299391231</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>56793158274.46561</v>
@@ -4883,7 +4823,7 @@
         <v>17355000</v>
       </c>
       <c r="AL34" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM34">
         <v>0.1983295645284848</v>
@@ -4909,22 +4849,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>346.9689219983833</v>
+        <v>42.99383383152298</v>
       </c>
       <c r="E35">
-        <v>323.5855497741699</v>
+        <v>45.37607609558106</v>
       </c>
       <c r="F35">
-        <v>360.2120060943994</v>
+        <v>45.68236512851421</v>
       </c>
       <c r="G35">
-        <v>317.8341172066877</v>
+        <v>39.26732375526938</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>1299391231</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>56999743840</v>
@@ -5011,7 +4951,7 @@
         <v>33553000</v>
       </c>
       <c r="AL35" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM35">
         <v>0.2577571286558887</v>
@@ -5037,22 +4977,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1580.773709865663</v>
+        <v>35.91516532524682</v>
       </c>
       <c r="E36">
-        <v>1620.293052612305</v>
+        <v>31.16769380187988</v>
       </c>
       <c r="F36">
-        <v>1992.903998509211</v>
+        <v>37.74722636637873</v>
       </c>
       <c r="G36">
-        <v>1569.482469080908</v>
+        <v>30.70826023625083</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>1299391231</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>47277426560</v>
@@ -5139,7 +5079,7 @@
         <v>106444000</v>
       </c>
       <c r="AL36" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM36">
         <v>7.595984111333689</v>
@@ -5165,22 +5105,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>144.1598878880684</v>
+        <v>42.88038990294108</v>
       </c>
       <c r="E37">
-        <v>152.8968544158936</v>
+        <v>38.28038996505737</v>
       </c>
       <c r="F37">
-        <v>157.4893675024394</v>
+        <v>43.13563292062151</v>
       </c>
       <c r="G37">
-        <v>141.8076302985351</v>
+        <v>36.71491849717615</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>1299391231</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>57029918400</v>
@@ -5267,7 +5207,7 @@
         <v>35867000</v>
       </c>
       <c r="AL37" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM37">
         <v>-1.049642248722317</v>
@@ -5293,22 +5233,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4809.33501228645</v>
+        <v>36.1671431326616</v>
       </c>
       <c r="E38">
-        <v>5268.704003417969</v>
+        <v>37.51431176376343</v>
       </c>
       <c r="F38">
-        <v>5896.545729683295</v>
+        <v>39.48633243963496</v>
       </c>
       <c r="G38">
-        <v>4339.857657046905</v>
+        <v>34.00594253294112</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>1299391231</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>46185589365.66888</v>
@@ -5395,7 +5335,7 @@
         <v>33553000</v>
       </c>
       <c r="AL38" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM38">
         <v>-0.4835519428871989</v>
@@ -5421,22 +5361,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>3344.812269500415</v>
+        <v>39.97933828197714</v>
       </c>
       <c r="E39">
-        <v>3113.497451416016</v>
+        <v>36.74613710021973</v>
       </c>
       <c r="F39">
-        <v>3488.227456712743</v>
+        <v>41.57300784070154</v>
       </c>
       <c r="G39">
-        <v>2914.566707863432</v>
+        <v>34.5218794650166</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>1299391231</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>51656150910</v>
@@ -5523,7 +5463,7 @@
         <v>40495000</v>
       </c>
       <c r="AL39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM39">
         <v>-0.5287493670516695</v>
@@ -5564,7 +5504,7 @@
         <v>1299391231</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>47282586780</v>
@@ -5645,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO40">
         <v>0.1217147231436591</v>
@@ -5665,22 +5605,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2865.882895130199</v>
+        <v>36.00089548272408</v>
       </c>
       <c r="E41">
-        <v>2758.291954589844</v>
+        <v>36.75187037277222</v>
       </c>
       <c r="F41">
-        <v>3191.4870572918</v>
+        <v>39.56658782725973</v>
       </c>
       <c r="G41">
-        <v>2690.906049725095</v>
+        <v>35.00341965478231</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>1299391231</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>47192410200</v>
@@ -5767,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM41">
         <v>-0.7014914160920053</v>
@@ -5793,22 +5733,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>4154.444877947366</v>
+        <v>35.83228920555114</v>
       </c>
       <c r="E42">
-        <v>4297.901064208984</v>
+        <v>33.42572929382325</v>
       </c>
       <c r="F42">
-        <v>4297.901064208984</v>
+        <v>36.13310947036743</v>
       </c>
       <c r="G42">
-        <v>3527.402515416741</v>
+        <v>26.8076900882721</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>1299391231</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>45689467200</v>
@@ -5895,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM42">
         <v>-1.063836206896552</v>
@@ -5921,22 +5861,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>3398.109</v>
+        <v>41.46109394073486</v>
       </c>
       <c r="E43">
-        <v>3499.925</v>
+        <v>40.07269305801392</v>
       </c>
       <c r="F43">
-        <v>3615.625</v>
+        <v>44.77590088272095</v>
       </c>
       <c r="G43">
-        <v>3343.73</v>
+        <v>39.08345858764648</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>1299391231</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>54411673680</v>
@@ -6023,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM43">
         <v>-1.652069502632239</v>
